--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1577,28 +1577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.729552211453</v>
+        <v>145.3021481752041</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.9273495605198</v>
+        <v>198.8088094115884</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.3820025147882</v>
+        <v>179.8347756713193</v>
       </c>
       <c r="AD2" t="n">
-        <v>103729.552211453</v>
+        <v>145302.1481752041</v>
       </c>
       <c r="AE2" t="n">
-        <v>141927.3495605198</v>
+        <v>198808.8094115884</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.975342075858007e-06</v>
+        <v>5.029963404408687e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.805555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>128382.0025147882</v>
+        <v>179834.7756713193</v>
       </c>
     </row>
     <row r="3">
@@ -1683,28 +1683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.0812627646385</v>
+        <v>128.23946403236</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.8308666375626</v>
+        <v>175.4628922148631</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.1536751550012</v>
+        <v>158.7169600456414</v>
       </c>
       <c r="AD3" t="n">
-        <v>97081.26276463849</v>
+        <v>128239.46403236</v>
       </c>
       <c r="AE3" t="n">
-        <v>132830.8666375626</v>
+        <v>175462.8922148631</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.31895242102711e-06</v>
+        <v>5.610853741557037e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.102430555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>120153.6751550012</v>
+        <v>158716.9600456414</v>
       </c>
     </row>
   </sheetData>
@@ -1980,28 +1980,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.81969936023997</v>
+        <v>124.0061515457994</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.3682516976446</v>
+        <v>169.6706873101878</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.1169659216282</v>
+        <v>153.4775550476558</v>
       </c>
       <c r="AD2" t="n">
-        <v>93819.69936023996</v>
+        <v>124006.1515457994</v>
       </c>
       <c r="AE2" t="n">
-        <v>128368.2516976446</v>
+        <v>169670.6873101878</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.394944527718118e-06</v>
+        <v>5.879334404006177e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>116116.9659216282</v>
+        <v>153477.5550476558</v>
       </c>
     </row>
     <row r="3">
@@ -2086,28 +2086,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.00503738064324</v>
+        <v>123.1914895662026</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.2535952368109</v>
+        <v>168.5560308493541</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.108690708986</v>
+        <v>152.4692798350136</v>
       </c>
       <c r="AD3" t="n">
-        <v>93005.03738064325</v>
+        <v>123191.4895662027</v>
       </c>
       <c r="AE3" t="n">
-        <v>127253.5952368109</v>
+        <v>168556.0308493541</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.465597081012639e-06</v>
+        <v>6.00168986045735e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.050347222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>115108.690708986</v>
+        <v>152469.2798350136</v>
       </c>
     </row>
   </sheetData>
@@ -2383,28 +2383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.27074879521</v>
+        <v>110.5315942873352</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.9347121477243</v>
+        <v>151.2342036136546</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.0609431287477</v>
+        <v>136.8006234793465</v>
       </c>
       <c r="AD2" t="n">
-        <v>83270.74879520999</v>
+        <v>110531.5942873352</v>
       </c>
       <c r="AE2" t="n">
-        <v>113934.7121477243</v>
+        <v>151234.2036136546</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.648182001683943e-06</v>
+        <v>6.903145398447815e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.414930555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>103060.9431287477</v>
+        <v>136800.6234793465</v>
       </c>
     </row>
   </sheetData>
@@ -2680,28 +2680,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.42783978156999</v>
+        <v>114.8324807724664</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.2543833162842</v>
+        <v>157.1188662443286</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.9683509436782</v>
+        <v>142.1236621677268</v>
       </c>
       <c r="AD2" t="n">
-        <v>86427.83978156999</v>
+        <v>114832.4807724664</v>
       </c>
       <c r="AE2" t="n">
-        <v>118254.3833162842</v>
+        <v>157118.8662443286</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.640453747199127e-06</v>
+        <v>6.632116112654892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.145833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>106968.3509436782</v>
+        <v>142123.6621677268</v>
       </c>
     </row>
   </sheetData>
@@ -2977,28 +2977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.31923634217578</v>
+        <v>116.444495355873</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.2645667148311</v>
+        <v>159.3244957144086</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.6456326283963</v>
+        <v>144.1187894568035</v>
       </c>
       <c r="AD2" t="n">
-        <v>81319.23634217579</v>
+        <v>116444.495355873</v>
       </c>
       <c r="AE2" t="n">
-        <v>111264.5667148311</v>
+        <v>159324.4957144086</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.543332403531764e-06</v>
+        <v>6.943789847564732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.857638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>100645.6326283963</v>
+        <v>144118.7894568035</v>
       </c>
     </row>
   </sheetData>
@@ -3274,28 +3274,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.076892952134</v>
+        <v>126.5187610761613</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.4566435504258</v>
+        <v>173.1085505181364</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.9106059905661</v>
+        <v>156.5873134161102</v>
       </c>
       <c r="AD2" t="n">
-        <v>96076.892952134</v>
+        <v>126518.7610761613</v>
       </c>
       <c r="AE2" t="n">
-        <v>131456.6435504257</v>
+        <v>173108.5505181364</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.289787763897178e-06</v>
+        <v>5.660018023755419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.310763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>118910.6059905661</v>
+        <v>156587.3134161102</v>
       </c>
     </row>
     <row r="3">
@@ -3380,28 +3380,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.26470298296066</v>
+        <v>124.7065711069879</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.9771252864251</v>
+        <v>170.6290322541357</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.6677294696551</v>
+        <v>154.3444368951992</v>
       </c>
       <c r="AD3" t="n">
-        <v>94264.70298296066</v>
+        <v>124706.5711069879</v>
       </c>
       <c r="AE3" t="n">
-        <v>128977.1252864251</v>
+        <v>170629.0322541357</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.409842355988074e-06</v>
+        <v>5.866569693296589e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH3" t="n">
-        <v>116667.7294696551</v>
+        <v>154344.4368951992</v>
       </c>
     </row>
   </sheetData>
@@ -3677,28 +3677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.38306057368673</v>
+        <v>123.6823703047792</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.2978467791963</v>
+        <v>169.227675532004</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.6259119287278</v>
+        <v>153.0768236918108</v>
       </c>
       <c r="AD2" t="n">
-        <v>89383.06057368673</v>
+        <v>123682.3703047792</v>
       </c>
       <c r="AE2" t="n">
-        <v>122297.8467791963</v>
+        <v>169227.675532004</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.407703756950765e-06</v>
+        <v>6.831288696771048e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>110625.9119287278</v>
+        <v>153076.8236918108</v>
       </c>
     </row>
   </sheetData>
@@ -3974,28 +3974,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.68175879140362</v>
+        <v>119.0392626783275</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.7065388583117</v>
+        <v>162.8747708380443</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.9955990094155</v>
+        <v>147.3302313054829</v>
       </c>
       <c r="AD2" t="n">
-        <v>89681.75879140363</v>
+        <v>119039.2626783275</v>
       </c>
       <c r="AE2" t="n">
-        <v>122706.5388583117</v>
+        <v>162874.7708380443</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.567628606678496e-06</v>
+        <v>6.318535361849272e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.050347222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>110995.5990094155</v>
+        <v>147330.2313054829</v>
       </c>
     </row>
   </sheetData>
@@ -4271,28 +4271,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.21238455439475</v>
+        <v>122.1337082898507</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.1690526705636</v>
+        <v>167.1087278410337</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.1276553630959</v>
+        <v>151.1601053945043</v>
       </c>
       <c r="AD2" t="n">
-        <v>92212.38455439474</v>
+        <v>122133.7082898507</v>
       </c>
       <c r="AE2" t="n">
-        <v>126169.0526705636</v>
+        <v>167108.7278410337</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.471798837084674e-06</v>
+        <v>6.054514017163527e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>114127.6553630959</v>
+        <v>151160.1053945043</v>
       </c>
     </row>
     <row r="3">
@@ -4377,28 +4377,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.99069668216099</v>
+        <v>121.9120204176169</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.8657295435949</v>
+        <v>166.8054047140649</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.8532809696482</v>
+        <v>150.8857310010567</v>
       </c>
       <c r="AD3" t="n">
-        <v>91990.69668216098</v>
+        <v>121912.0204176169</v>
       </c>
       <c r="AE3" t="n">
-        <v>125865.7295435949</v>
+        <v>166805.4047140649</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.493493314048511e-06</v>
+        <v>6.092347290643991e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.059027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>113853.2809696482</v>
+        <v>150885.7310010567</v>
       </c>
     </row>
   </sheetData>
@@ -4674,28 +4674,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.7980573386411</v>
+        <v>142.0624177794664</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.9163489471144</v>
+        <v>194.3760673573246</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.7538061704503</v>
+        <v>175.8250882973205</v>
       </c>
       <c r="AD2" t="n">
-        <v>100798.0573386411</v>
+        <v>142062.4177794664</v>
       </c>
       <c r="AE2" t="n">
-        <v>137916.3489471144</v>
+        <v>194376.0673573246</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.092980663051695e-06</v>
+        <v>5.257862135629947e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.605902777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>124753.8061704503</v>
+        <v>175825.0882973205</v>
       </c>
     </row>
     <row r="3">
@@ -4780,28 +4780,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.07447641425792</v>
+        <v>127.001501039785</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.4533371366936</v>
+        <v>173.7690566333502</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.9076151363199</v>
+        <v>157.1847817547144</v>
       </c>
       <c r="AD3" t="n">
-        <v>96074.47641425792</v>
+        <v>127001.501039785</v>
       </c>
       <c r="AE3" t="n">
-        <v>131453.3371366936</v>
+        <v>173769.0566333502</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.356754206236053e-06</v>
+        <v>5.706259677088099e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.085069444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>118907.6151363199</v>
+        <v>157184.7817547144</v>
       </c>
     </row>
   </sheetData>
@@ -5077,28 +5077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.74315456611518</v>
+        <v>116.4823423035562</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.054055032091</v>
+        <v>159.3762795779183</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.596264516784</v>
+        <v>144.1656311410589</v>
       </c>
       <c r="AD2" t="n">
-        <v>87743.15456611518</v>
+        <v>116482.3423035562</v>
       </c>
       <c r="AE2" t="n">
-        <v>120054.055032091</v>
+        <v>159376.2795779183</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.606778932063248e-06</v>
+        <v>6.503875922469011e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.128472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>108596.264516784</v>
+        <v>144165.6311410589</v>
       </c>
     </row>
   </sheetData>
@@ -5374,28 +5374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.33481493747925</v>
+        <v>112.004725089887</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.3906143868615</v>
+        <v>153.2498061676493</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.3778961015537</v>
+        <v>138.6238597545046</v>
       </c>
       <c r="AD2" t="n">
-        <v>84334.81493747926</v>
+        <v>112004.725089887</v>
       </c>
       <c r="AE2" t="n">
-        <v>115390.6143868615</v>
+        <v>153249.8061676493</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.659415404537424e-06</v>
+        <v>6.827299439307851e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.293402777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>104377.8961015537</v>
+        <v>138623.8597545046</v>
       </c>
     </row>
   </sheetData>
@@ -8588,28 +8588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.28296921008064</v>
+        <v>109.26877800413</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.5831885415913</v>
+        <v>149.5063626634517</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.8384070387083</v>
+        <v>135.2376852443905</v>
       </c>
       <c r="AD2" t="n">
-        <v>82282.96921008064</v>
+        <v>109268.77800413</v>
       </c>
       <c r="AE2" t="n">
-        <v>112583.1885415913</v>
+        <v>149506.3626634517</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.609464132514725e-06</v>
+        <v>6.941133378777917e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.597222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>101838.4070387083</v>
+        <v>135237.6852443904</v>
       </c>
     </row>
   </sheetData>
@@ -8885,28 +8885,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.57144163119354</v>
+        <v>131.094457285583</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.5015509879483</v>
+        <v>179.3692199373339</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.7603503322977</v>
+        <v>162.2504733328463</v>
       </c>
       <c r="AD2" t="n">
-        <v>97571.44163119353</v>
+        <v>131094.457285583</v>
       </c>
       <c r="AE2" t="n">
-        <v>133501.5509879483</v>
+        <v>179369.2199373339</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.155254680923226e-06</v>
+        <v>6.508026163598863e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.098958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>120760.3503322977</v>
+        <v>162250.4733328463</v>
       </c>
     </row>
   </sheetData>
@@ -9182,28 +9182,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.82919170484791</v>
+        <v>120.4746182693891</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.2765071916528</v>
+        <v>164.8386876811533</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.4157317684875</v>
+        <v>149.1067146814608</v>
       </c>
       <c r="AD2" t="n">
-        <v>90829.19170484791</v>
+        <v>120474.6182693891</v>
       </c>
       <c r="AE2" t="n">
-        <v>124276.5071916528</v>
+        <v>164838.6876811533</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.522607543296977e-06</v>
+        <v>6.189082494540446e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.067708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>112415.7317684875</v>
+        <v>149106.7146814608</v>
       </c>
     </row>
     <row r="3">
@@ -9288,28 +9288,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.95386564068569</v>
+        <v>120.5992922052269</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.4470915708918</v>
+        <v>165.0092720603924</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.5700358139887</v>
+        <v>149.261018726962</v>
       </c>
       <c r="AD3" t="n">
-        <v>90953.86564068569</v>
+        <v>120599.2922052269</v>
       </c>
       <c r="AE3" t="n">
-        <v>124447.0915708918</v>
+        <v>165009.2720603924</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.523444594654725e-06</v>
+        <v>6.190553160756195e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.067708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>112570.0358139887</v>
+        <v>149261.018726962</v>
       </c>
     </row>
   </sheetData>
@@ -9585,28 +9585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.72566090324111</v>
+        <v>129.4141298744668</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.0808047165235</v>
+        <v>177.0701218426323</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.1888823015147</v>
+        <v>160.1707979334979</v>
       </c>
       <c r="AD2" t="n">
-        <v>98725.66090324111</v>
+        <v>129414.1298744668</v>
       </c>
       <c r="AE2" t="n">
-        <v>135080.8047165234</v>
+        <v>177070.1218426323</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.17410258793865e-06</v>
+        <v>5.42736169577906e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>122188.8823015147</v>
+        <v>160170.7979334978</v>
       </c>
     </row>
     <row r="3">
@@ -9691,28 +9691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.23644562129083</v>
+        <v>125.9249145925165</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.3067064344473</v>
+        <v>172.2960235605562</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.8704172589894</v>
+        <v>155.8523328909725</v>
       </c>
       <c r="AD3" t="n">
-        <v>95236.44562129083</v>
+        <v>125924.9145925166</v>
       </c>
       <c r="AE3" t="n">
-        <v>130306.7064344473</v>
+        <v>172296.0235605562</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.373596052981747e-06</v>
+        <v>5.76847328897312e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.102430555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>117870.4172589894</v>
+        <v>155852.3328909725</v>
       </c>
     </row>
   </sheetData>
@@ -9988,28 +9988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.5620730437762</v>
+        <v>147.2517153775119</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.8029295253022</v>
+        <v>201.4762932666195</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.8877025671437</v>
+        <v>182.2476786110641</v>
       </c>
       <c r="AD2" t="n">
-        <v>106562.0730437762</v>
+        <v>147251.7153775119</v>
       </c>
       <c r="AE2" t="n">
-        <v>145802.9295253022</v>
+        <v>201476.2932666194</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.673603210842474e-06</v>
+        <v>5.730763116971957e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>131887.7025671437</v>
+        <v>182247.6786110641</v>
       </c>
     </row>
   </sheetData>
@@ -10285,28 +10285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.5204066391165</v>
+        <v>113.5698872183337</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.0127932576551</v>
+        <v>155.3913300418688</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.8452564976617</v>
+        <v>140.5609995958169</v>
       </c>
       <c r="AD2" t="n">
-        <v>85520.4066391165</v>
+        <v>113569.8872183337</v>
       </c>
       <c r="AE2" t="n">
-        <v>117012.7932576551</v>
+        <v>155391.3300418688</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.645189964296913e-06</v>
+        <v>6.716016586855319e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.223958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>105845.2564976617</v>
+        <v>140560.9995958169</v>
       </c>
     </row>
   </sheetData>
@@ -10582,28 +10582,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.76112510967963</v>
+        <v>117.8171664863658</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.4468872394859</v>
+        <v>161.2026449131243</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.856166773158</v>
+        <v>145.8176907319932</v>
       </c>
       <c r="AD2" t="n">
-        <v>88761.12510967962</v>
+        <v>117817.1664863658</v>
       </c>
       <c r="AE2" t="n">
-        <v>121446.8872394859</v>
+        <v>161202.6449131243</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.584273969383711e-06</v>
+        <v>6.403043872152608e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>109856.166773158</v>
+        <v>145817.6907319932</v>
       </c>
     </row>
   </sheetData>
